--- a/pearson_tables/tp_netherlands_cumul-2-6.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-2-6.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.728471197878283</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6517227020729522</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7253401925949519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7489433318878929</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7731421875680561</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8501453305895191</v>
+        <v>0.7650110675315596</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6154540345979583</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.638768805618901</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5509100410530059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6979980940655536</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8246261009291487</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6210651493841233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6598736946301393</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7111874325751616</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5806019387881793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.7329594780288632</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6638540001240508</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71988560997721</v>
+        <v>0.6582463134102237</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7111805880244274</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6196184404006444</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5422787818350195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.768498940107004</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6112208557183884</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.6688772945603512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
